--- a/config_PIC24FJ64GB002_FatFs_sample_03.xlsx
+++ b/config_PIC24FJ64GB002_FatFs_sample_03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\20191031_USBMSC_ff13c_sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mura01\Google ドライブ\PIC24F\20191031_USBMSC_ff13c_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4715F80E-17B7-47E1-A14E-1AFA2810A060}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A3AA86-FB21-4977-ADFF-F9826997C5A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="20445" windowHeight="14670" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="765" windowWidth="23700" windowHeight="14835" tabRatio="500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CPU" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,11 @@
     <sheet name="Config" sheetId="3" r:id="rId3"/>
     <sheet name="参考回路図" sheetId="4" r:id="rId4"/>
     <sheet name="USB割込みについて" sheetId="11" r:id="rId5"/>
-    <sheet name="vUSBMSC_vSCSI概要" sheetId="10" r:id="rId6"/>
-    <sheet name="USB概要" sheetId="5" r:id="rId7"/>
-    <sheet name="USB通信ディスクリプタ＆初期化" sheetId="6" r:id="rId8"/>
-    <sheet name="USBレジスタ" sheetId="7" r:id="rId9"/>
-    <sheet name="USB通信と各種設定概要" sheetId="8" r:id="rId10"/>
+    <sheet name="USB通信と各種設定概要" sheetId="8" r:id="rId6"/>
+    <sheet name="vUSBMSC_vSCSI概要" sheetId="10" r:id="rId7"/>
+    <sheet name="USB概要" sheetId="5" r:id="rId8"/>
+    <sheet name="USB通信ディスクリプタ＆初期化" sheetId="6" r:id="rId9"/>
+    <sheet name="USBレジスタ" sheetId="7" r:id="rId10"/>
     <sheet name="Amp" sheetId="9" state="hidden" r:id="rId11"/>
   </sheets>
   <definedNames>
@@ -43,16 +43,16 @@
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="2">Config!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="2">Config!#REF!</definedName>
     <definedName name="a" localSheetId="1">#REF!</definedName>
-    <definedName name="a" localSheetId="8">#REF!</definedName>
-    <definedName name="a" localSheetId="6">#REF!</definedName>
+    <definedName name="a" localSheetId="9">#REF!</definedName>
+    <definedName name="a" localSheetId="7">#REF!</definedName>
     <definedName name="a">#REF!</definedName>
     <definedName name="data10" localSheetId="1">#REF!</definedName>
-    <definedName name="data10" localSheetId="8">#REF!</definedName>
-    <definedName name="data10" localSheetId="6">#REF!</definedName>
+    <definedName name="data10" localSheetId="9">#REF!</definedName>
+    <definedName name="data10" localSheetId="7">#REF!</definedName>
     <definedName name="data10">#REF!</definedName>
     <definedName name="data4" localSheetId="1">#REF!</definedName>
-    <definedName name="data4" localSheetId="8">#REF!</definedName>
-    <definedName name="data4" localSheetId="6">#REF!</definedName>
+    <definedName name="data4" localSheetId="9">#REF!</definedName>
+    <definedName name="data4" localSheetId="7">#REF!</definedName>
     <definedName name="data4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase" localSheetId="0">CPU!#REF!</definedName>
     <definedName name="wp3125683" localSheetId="2">Config!#REF!</definedName>
@@ -224,12 +224,12 @@
     <definedName name="wp3219821" localSheetId="2">Config!#REF!</definedName>
     <definedName name="wp3219824" localSheetId="2">Config!#REF!</definedName>
     <definedName name="WRK_ITKB0020R" localSheetId="1">#REF!</definedName>
-    <definedName name="WRK_ITKB0020R" localSheetId="8">#REF!</definedName>
-    <definedName name="WRK_ITKB0020R" localSheetId="6">#REF!</definedName>
+    <definedName name="WRK_ITKB0020R" localSheetId="9">#REF!</definedName>
+    <definedName name="WRK_ITKB0020R" localSheetId="7">#REF!</definedName>
     <definedName name="WRK_ITKB0020R">#REF!</definedName>
     <definedName name="zz" localSheetId="1">#REF!</definedName>
-    <definedName name="zz" localSheetId="8">#REF!</definedName>
-    <definedName name="zz" localSheetId="6">#REF!</definedName>
+    <definedName name="zz" localSheetId="9">#REF!</definedName>
+    <definedName name="zz" localSheetId="7">#REF!</definedName>
     <definedName name="zz">#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -3471,14 +3471,14 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10194,2352 +10194,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>531720</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="611280" y="10972800"/>
-          <a:ext cx="5423760" cy="4446360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>361800</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>123840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7699680" y="18983160"/>
-          <a:ext cx="6467760" cy="4551840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>352440</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>112680</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7690320" y="15716160"/>
-          <a:ext cx="6486840" cy="3075480"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>103320</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="611280" y="21088080"/>
-          <a:ext cx="4995360" cy="5666040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>485640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>360720</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7823520" y="9182160"/>
-          <a:ext cx="3544200" cy="5703840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
-      <xdr:row>217</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>293760</xdr:colOff>
-      <xdr:row>268</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="図 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="658800" y="37223640"/>
-          <a:ext cx="5749920" cy="8885160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>217</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>360360</xdr:colOff>
-      <xdr:row>265</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="図 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000040000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13452840" y="37204560"/>
-          <a:ext cx="5864040" cy="8389800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>217</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>255600</xdr:colOff>
-      <xdr:row>271</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="図 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000041000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7337880" y="37204560"/>
-          <a:ext cx="5759280" cy="9303840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>398520</xdr:colOff>
-      <xdr:row>187</xdr:row>
-      <xdr:rowOff>169920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="図 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000042000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="611280" y="27088920"/>
-          <a:ext cx="6513480" cy="5141880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>387000</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>28440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>50040</xdr:colOff>
-      <xdr:row>182</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="CustomShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000043000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2832840" y="31060800"/>
-          <a:ext cx="885960" cy="304200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="FFFFFF"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>(常にEP0)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>369720</xdr:colOff>
-      <xdr:row>169</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="図 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000044000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6726240" y="24688800"/>
-          <a:ext cx="6485040" cy="4408560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000045000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="611280" y="15773400"/>
-          <a:ext cx="6848640" cy="4561200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>26280</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>160200</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="CustomShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000046000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="637560" y="20230920"/>
-          <a:ext cx="2580120" cy="561240"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout1">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 106"/>
-            <a:gd name="adj2" fmla="val 1150"/>
-            <a:gd name="adj3" fmla="val -121400"/>
-            <a:gd name="adj4" fmla="val 24378"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>1.SOFパケットはSOFフラグをEnableすると、1ms周期で自動送信される。</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9360</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>141480</xdr:colOff>
-      <xdr:row>212</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="図 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000047000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="620640" y="32318280"/>
-          <a:ext cx="5024160" cy="4189680"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>237960</xdr:colOff>
-      <xdr:row>193</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>389520</xdr:colOff>
-      <xdr:row>195</xdr:row>
-      <xdr:rowOff>104040</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="CustomShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000048000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5130000" y="33222960"/>
-          <a:ext cx="1985760" cy="313560"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout1">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 106"/>
-            <a:gd name="adj2" fmla="val 1150"/>
-            <a:gd name="adj3" fmla="val 66736"/>
-            <a:gd name="adj4" fmla="val -50537"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>MassStrageClassではOUT = EP2</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>219240</xdr:colOff>
-      <xdr:row>196</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>370800</xdr:colOff>
-      <xdr:row>198</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="CustomShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000049000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5111280" y="33699600"/>
-          <a:ext cx="1985760" cy="313560"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout1">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 106"/>
-            <a:gd name="adj2" fmla="val 1150"/>
-            <a:gd name="adj3" fmla="val 54615"/>
-            <a:gd name="adj4" fmla="val -31068"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>MassStrageClassではIN = EP1</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>142920</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>294480</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="CustomShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5646240" y="29317680"/>
-          <a:ext cx="1986120" cy="313920"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout1">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 106"/>
-            <a:gd name="adj2" fmla="val 1150"/>
-            <a:gd name="adj3" fmla="val -590840"/>
-            <a:gd name="adj4" fmla="val -132395"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>コントロール転送は、 EP0</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>414000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>551880</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="画像 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7751880" y="3981240"/>
-          <a:ext cx="4418280" cy="1827720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>180000</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="628560" y="342720"/>
-          <a:ext cx="3741120" cy="1494000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19080</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>2084040</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="647640" y="4991040"/>
-          <a:ext cx="7511760" cy="2646720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1598040</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="628560" y="21259800"/>
-          <a:ext cx="7044840" cy="3332160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1150920</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8528040" y="21431160"/>
-          <a:ext cx="3036600" cy="2370240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>204480</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>626760</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000050000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8732520" y="4876920"/>
-          <a:ext cx="6865560" cy="2827440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>598320</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>112320</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000051000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="628560" y="7886520"/>
-          <a:ext cx="4788000" cy="7827480"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>446040</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>169560</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="図 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000052000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5446800" y="7886520"/>
-          <a:ext cx="4784400" cy="6170400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>169560</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="図 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000053000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10413720" y="7886520"/>
-          <a:ext cx="4727160" cy="6237000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>341280</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>55080</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="84" name="図 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000054000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15599880" y="7886520"/>
-          <a:ext cx="4741920" cy="7084440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>26280</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>314640</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="85" name="図 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000055000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15626160" y="14896800"/>
-          <a:ext cx="4689000" cy="6913080"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>202320</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="86" name="図 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000056000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="628560" y="2057400"/>
-          <a:ext cx="8101800" cy="2475000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>97920</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="87" name="画像 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000057000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="628560" y="16630560"/>
-          <a:ext cx="9254520" cy="3808440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>720</xdr:colOff>
-      <xdr:row>270</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
-      <xdr:row>293</xdr:row>
-      <xdr:rowOff>55439</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="88" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000058000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="612000" y="39083400"/>
-          <a:ext cx="7588440" cy="4086000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>10080</xdr:colOff>
-      <xdr:row>292</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>29520</xdr:colOff>
-      <xdr:row>328</xdr:row>
-      <xdr:rowOff>74162</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="89" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000059000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="621360" y="43090920"/>
-          <a:ext cx="7540920" cy="6231240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="90" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1406520" y="5433480"/>
-          <a:ext cx="6800760" cy="6734160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>419040</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>142920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>580320</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="CustomShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1825560" y="11710080"/>
-          <a:ext cx="6276240" cy="429840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12600">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>720</xdr:colOff>
-      <xdr:row>332</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>227160</xdr:colOff>
-      <xdr:row>371</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="92" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="612000" y="49949640"/>
-          <a:ext cx="7136640" cy="6957000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
-      <xdr:row>332</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>379800</xdr:colOff>
-      <xdr:row>366</xdr:row>
-      <xdr:rowOff>142199</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="93" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8133120" y="49949640"/>
-          <a:ext cx="7106040" cy="6100200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>203760</xdr:colOff>
-      <xdr:row>376</xdr:row>
-      <xdr:rowOff>13320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>528480</xdr:colOff>
-      <xdr:row>395</xdr:row>
-      <xdr:rowOff>78480</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="94" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1610280" y="57673800"/>
-          <a:ext cx="8274240" cy="3395160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>249120</xdr:colOff>
-      <xdr:row>376</xdr:row>
-      <xdr:rowOff>150480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>390</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="95" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10828080" y="57810960"/>
-          <a:ext cx="5100120" cy="2382120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>49728</xdr:colOff>
-      <xdr:row>180</xdr:row>
-      <xdr:rowOff>156689</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>282648</xdr:colOff>
-      <xdr:row>234</xdr:row>
-      <xdr:rowOff>82486</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="グループ化 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1580149" y="30979161"/>
-          <a:ext cx="8195392" cy="9172538"/>
-          <a:chOff x="1798581" y="24281484"/>
-          <a:chExt cx="8290133" cy="8170387"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="96" name="画像 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000060000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr/>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1851861" y="24621768"/>
-            <a:ext cx="8042093" cy="1792863"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="97" name="画像 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000061000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr/>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1798581" y="26590353"/>
-            <a:ext cx="8290133" cy="5861518"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="98" name="CustomShape 1">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000062000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2926530" y="27646487"/>
-            <a:ext cx="3919132" cy="198085"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19080">
-            <a:solidFill>
-              <a:srgbClr val="FF3333"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor"/>
-        </xdr:style>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="99" name="CustomShape 1">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000063000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2908170" y="29563275"/>
-            <a:ext cx="3226817" cy="201642"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19080">
-            <a:solidFill>
-              <a:srgbClr val="FF3333"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor"/>
-        </xdr:style>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="100" name="CustomShape 1">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000064000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2898450" y="30116362"/>
-            <a:ext cx="3226817" cy="201642"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19080">
-            <a:solidFill>
-              <a:srgbClr val="FF3333"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor"/>
-        </xdr:style>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="101" name="CustomShape 1">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000065000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2938050" y="31248095"/>
-            <a:ext cx="3809332" cy="198085"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19080">
-            <a:solidFill>
-              <a:srgbClr val="FF3333"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor"/>
-        </xdr:style>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="102" name="CustomShape 1">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000066000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8153610" y="24281484"/>
-            <a:ext cx="1708304" cy="611406"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -108523"/>
-              <a:gd name="adj2" fmla="val 22093"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF3333"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor"/>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Times New Roman"/>
-              </a:rPr>
-              <a:t>ホストモードでは、</a:t>
-            </a:r>
-            <a:br/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Times New Roman"/>
-              </a:rPr>
-              <a:t>U1EP0のみ使用。</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>78120</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>448200</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="103" name="図 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000067000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1484640" y="16124040"/>
-          <a:ext cx="6485040" cy="4408560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>380385</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>33964</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1530421" y="14212584"/>
-          <a:ext cx="8342857" cy="4828571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>96318</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>196021</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>76383</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="グループ化 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1530421" y="28179015"/>
-          <a:ext cx="11476190" cy="665008"/>
-          <a:chOff x="1530421" y="28179015"/>
-          <a:chExt cx="11476190" cy="665008"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="図 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1530421" y="28596404"/>
-            <a:ext cx="11476190" cy="247619"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="6" name="図 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1530421" y="28179015"/>
-            <a:ext cx="11466667" cy="438095"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>542772</xdr:colOff>
       <xdr:row>55</xdr:row>
@@ -14511,6 +12165,2352 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>531720</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>160200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="611280" y="10972800"/>
+          <a:ext cx="5423760" cy="4446360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361800</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>123840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>102960</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>46440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7699680" y="18983160"/>
+          <a:ext cx="6467760" cy="4551840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352440</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>114480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>112680</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>103680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7690320" y="15716160"/>
+          <a:ext cx="6486840" cy="3075480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>103320</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>7920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="611280" y="21088080"/>
+          <a:ext cx="4995360" cy="5666040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>485640</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>95400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>360720</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>141480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7823520" y="9182160"/>
+          <a:ext cx="3544200" cy="5703840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47520</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>19080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>293760</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>160200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="658800" y="37223640"/>
+          <a:ext cx="5749920" cy="8885160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>360360</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>160200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13452840" y="37204560"/>
+          <a:ext cx="5864040" cy="8389800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>255600</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7337880" y="37204560"/>
+          <a:ext cx="5759280" cy="9303840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>398520</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>169920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="611280" y="27088920"/>
+          <a:ext cx="6513480" cy="5141880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>387000</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>28440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50040</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>161280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2832840" y="31060800"/>
+          <a:ext cx="885960" cy="304200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>(常にEP0)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>369720</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>122400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6726240" y="24688800"/>
+          <a:ext cx="6485040" cy="4408560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>122040</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>103680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="611280" y="15773400"/>
+          <a:ext cx="6848640" cy="4561200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>26280</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>160200</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>46800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="637560" y="20230920"/>
+          <a:ext cx="2580120" cy="561240"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 106"/>
+            <a:gd name="adj2" fmla="val 1150"/>
+            <a:gd name="adj3" fmla="val -121400"/>
+            <a:gd name="adj4" fmla="val 24378"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>1.SOFパケットはSOFフラグをEnableすると、1ms周期で自動送信される。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9360</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>85680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>141480</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>160560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="620640" y="32318280"/>
+          <a:ext cx="5024160" cy="4189680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>237960</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>133200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>389520</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>104040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5130000" y="33222960"/>
+          <a:ext cx="1985760" cy="313560"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 106"/>
+            <a:gd name="adj2" fmla="val 1150"/>
+            <a:gd name="adj3" fmla="val 66736"/>
+            <a:gd name="adj4" fmla="val -50537"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>MassStrageClassではOUT = EP2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219240</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>95400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>370800</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>66240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5111280" y="33699600"/>
+          <a:ext cx="1985760" cy="313560"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 106"/>
+            <a:gd name="adj2" fmla="val 1150"/>
+            <a:gd name="adj3" fmla="val 54615"/>
+            <a:gd name="adj4" fmla="val -31068"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>MassStrageClassではIN = EP1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142920</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>294480</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>142200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5646240" y="29317680"/>
+          <a:ext cx="1986120" cy="313920"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 106"/>
+            <a:gd name="adj2" fmla="val 1150"/>
+            <a:gd name="adj3" fmla="val -590840"/>
+            <a:gd name="adj4" fmla="val -132395"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>コントロール転送は、 EP0</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>414000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>551880</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="画像 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7751880" y="3981240"/>
+          <a:ext cx="4418280" cy="1827720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>122400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628560" y="342720"/>
+          <a:ext cx="3741120" cy="1494000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19080</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2084040</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>93960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647640" y="4991040"/>
+          <a:ext cx="7511760" cy="2646720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1598040</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>74880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628560" y="21259800"/>
+          <a:ext cx="7044840" cy="3332160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1150920</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>141480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8528040" y="21431160"/>
+          <a:ext cx="3036600" cy="2370240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>204480</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>626760</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>160560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8732520" y="4876920"/>
+          <a:ext cx="6865560" cy="2827440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>598320</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>112320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628560" y="7886520"/>
+          <a:ext cx="4788000" cy="7827480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>446040</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>169560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5446800" y="7886520"/>
+          <a:ext cx="4784400" cy="6170400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>169560</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>64800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10413720" y="7886520"/>
+          <a:ext cx="4727160" cy="6237000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>341280</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>55080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15599880" y="7886520"/>
+          <a:ext cx="4741920" cy="7084440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>26280</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>152280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>314640</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>36000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000055000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15626160" y="14896800"/>
+          <a:ext cx="4689000" cy="6913080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>202320</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>74880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000056000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628560" y="2057400"/>
+          <a:ext cx="8101800" cy="2475000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>97920</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>36720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="画像 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628560" y="16630560"/>
+          <a:ext cx="9254520" cy="3808440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>55439</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="612000" y="39083400"/>
+          <a:ext cx="7588440" cy="4086000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10080</xdr:colOff>
+      <xdr:row>292</xdr:row>
+      <xdr:rowOff>152280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>29520</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>74162</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="621360" y="43090920"/>
+          <a:ext cx="7540920" cy="6231240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>74520</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>74880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1406520" y="5433480"/>
+          <a:ext cx="6800760" cy="6734160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419040</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>142920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>580320</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>47160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1825560" y="11710080"/>
+          <a:ext cx="6276240" cy="429840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12600">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>332</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>227160</xdr:colOff>
+      <xdr:row>371</xdr:row>
+      <xdr:rowOff>122400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="612000" y="49949640"/>
+          <a:ext cx="7136640" cy="6957000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>332</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>379800</xdr:colOff>
+      <xdr:row>366</xdr:row>
+      <xdr:rowOff>142199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8133120" y="49949640"/>
+          <a:ext cx="7106040" cy="6100200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>203760</xdr:colOff>
+      <xdr:row>376</xdr:row>
+      <xdr:rowOff>13320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>528480</xdr:colOff>
+      <xdr:row>395</xdr:row>
+      <xdr:rowOff>78480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1610280" y="57673800"/>
+          <a:ext cx="8274240" cy="3395160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>249120</xdr:colOff>
+      <xdr:row>376</xdr:row>
+      <xdr:rowOff>150480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>390</xdr:row>
+      <xdr:rowOff>79200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10828080" y="57810960"/>
+          <a:ext cx="5100120" cy="2382120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>49728</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>156689</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>282648</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>82486</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1580149" y="30979161"/>
+          <a:ext cx="8195392" cy="9172538"/>
+          <a:chOff x="1798581" y="24281484"/>
+          <a:chExt cx="8290133" cy="8170387"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="96" name="画像 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000060000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1851861" y="24621768"/>
+            <a:ext cx="8042093" cy="1792863"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="97" name="画像 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000061000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1798581" y="26590353"/>
+            <a:ext cx="8290133" cy="5861518"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="98" name="CustomShape 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000062000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2926530" y="27646487"/>
+            <a:ext cx="3919132" cy="198085"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19080">
+            <a:solidFill>
+              <a:srgbClr val="FF3333"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor"/>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="99" name="CustomShape 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000063000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2908170" y="29563275"/>
+            <a:ext cx="3226817" cy="201642"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19080">
+            <a:solidFill>
+              <a:srgbClr val="FF3333"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor"/>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="100" name="CustomShape 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000064000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2898450" y="30116362"/>
+            <a:ext cx="3226817" cy="201642"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19080">
+            <a:solidFill>
+              <a:srgbClr val="FF3333"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor"/>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="101" name="CustomShape 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000065000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2938050" y="31248095"/>
+            <a:ext cx="3809332" cy="198085"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19080">
+            <a:solidFill>
+              <a:srgbClr val="FF3333"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor"/>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="102" name="CustomShape 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000066000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8153610" y="24281484"/>
+            <a:ext cx="1708304" cy="611406"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -108523"/>
+              <a:gd name="adj2" fmla="val 22093"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF3333"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor"/>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:latin typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>ホストモードでは、</a:t>
+            </a:r>
+            <a:br/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:latin typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>U1EP0のみ使用。</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>78120</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>448200</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>27360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000067000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1484640" y="16124040"/>
+          <a:ext cx="6485040" cy="4408560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>380385</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>33964</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1530421" y="14212584"/>
+          <a:ext cx="8342857" cy="4828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>96318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>196021</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>76383</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="グループ化 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1530421" y="28179015"/>
+          <a:ext cx="11476190" cy="665008"/>
+          <a:chOff x="1530421" y="28179015"/>
+          <a:chExt cx="11476190" cy="665008"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="図 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1530421" y="28596404"/>
+            <a:ext cx="11476190" cy="247619"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="図 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1530421" y="28179015"/>
+            <a:ext cx="11466667" cy="438095"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -14814,7 +14814,7 @@
   <dimension ref="A1:AMK54"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="AB26" sqref="AB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15582,7 +15582,7 @@
         <v>151</v>
       </c>
       <c r="Z20" s="19" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.15">
@@ -15644,7 +15644,7 @@
         <v>166</v>
       </c>
       <c r="Z21" s="19" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.15">
@@ -15750,13 +15750,13 @@
       <c r="P26" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="Q26" s="92" t="s">
+      <c r="Q26" s="90" t="s">
         <v>182</v>
       </c>
-      <c r="R26" s="92"/>
-      <c r="S26" s="92"/>
-      <c r="T26" s="92"/>
-      <c r="U26" s="92"/>
+      <c r="R26" s="90"/>
+      <c r="S26" s="90"/>
+      <c r="T26" s="90"/>
+      <c r="U26" s="90"/>
       <c r="V26" s="33" t="s">
         <v>183</v>
       </c>
@@ -15839,11 +15839,11 @@
       <c r="N28" s="40"/>
       <c r="O28" s="41"/>
       <c r="P28" s="42"/>
-      <c r="Q28" s="90"/>
-      <c r="R28" s="90"/>
-      <c r="S28" s="90"/>
-      <c r="T28" s="90"/>
-      <c r="U28" s="90"/>
+      <c r="Q28" s="92"/>
+      <c r="R28" s="92"/>
+      <c r="S28" s="92"/>
+      <c r="T28" s="92"/>
+      <c r="U28" s="92"/>
       <c r="V28" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15892,11 +15892,11 @@
       <c r="N29" s="40"/>
       <c r="O29" s="41"/>
       <c r="P29" s="42"/>
-      <c r="Q29" s="90"/>
-      <c r="R29" s="90"/>
-      <c r="S29" s="90"/>
-      <c r="T29" s="90"/>
-      <c r="U29" s="90"/>
+      <c r="Q29" s="92"/>
+      <c r="R29" s="92"/>
+      <c r="S29" s="92"/>
+      <c r="T29" s="92"/>
+      <c r="U29" s="92"/>
       <c r="V29" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15939,13 +15939,13 @@
       <c r="P30" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="Q30" s="90" t="s">
+      <c r="Q30" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="R30" s="90"/>
-      <c r="S30" s="90"/>
-      <c r="T30" s="90"/>
-      <c r="U30" s="90"/>
+      <c r="R30" s="92"/>
+      <c r="S30" s="92"/>
+      <c r="T30" s="92"/>
+      <c r="U30" s="92"/>
       <c r="V30" s="43" t="str">
         <f t="shared" si="0"/>
         <v>PGD1</v>
@@ -15988,13 +15988,13 @@
       <c r="P31" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="Q31" s="90" t="s">
+      <c r="Q31" s="92" t="s">
         <v>187</v>
       </c>
-      <c r="R31" s="90"/>
-      <c r="S31" s="90"/>
-      <c r="T31" s="90"/>
-      <c r="U31" s="90"/>
+      <c r="R31" s="92"/>
+      <c r="S31" s="92"/>
+      <c r="T31" s="92"/>
+      <c r="U31" s="92"/>
       <c r="V31" s="43" t="str">
         <f t="shared" si="0"/>
         <v>PGC1</v>
@@ -16035,11 +16035,11 @@
       <c r="N32" s="40"/>
       <c r="O32" s="41"/>
       <c r="P32" s="42"/>
-      <c r="Q32" s="90"/>
-      <c r="R32" s="90"/>
-      <c r="S32" s="90"/>
-      <c r="T32" s="90"/>
-      <c r="U32" s="90"/>
+      <c r="Q32" s="92"/>
+      <c r="R32" s="92"/>
+      <c r="S32" s="92"/>
+      <c r="T32" s="92"/>
+      <c r="U32" s="92"/>
       <c r="V32" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16082,11 +16082,11 @@
       <c r="N33" s="40"/>
       <c r="O33" s="41"/>
       <c r="P33" s="42"/>
-      <c r="Q33" s="90"/>
-      <c r="R33" s="90"/>
-      <c r="S33" s="90"/>
-      <c r="T33" s="90"/>
-      <c r="U33" s="90"/>
+      <c r="Q33" s="92"/>
+      <c r="R33" s="92"/>
+      <c r="S33" s="92"/>
+      <c r="T33" s="92"/>
+      <c r="U33" s="92"/>
       <c r="V33" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16158,13 +16158,13 @@
       <c r="N35" s="40"/>
       <c r="O35" s="41"/>
       <c r="P35" s="42"/>
-      <c r="Q35" s="90" t="s">
+      <c r="Q35" s="92" t="s">
         <v>188</v>
       </c>
-      <c r="R35" s="90"/>
-      <c r="S35" s="90"/>
-      <c r="T35" s="90"/>
-      <c r="U35" s="90"/>
+      <c r="R35" s="92"/>
+      <c r="S35" s="92"/>
+      <c r="T35" s="92"/>
+      <c r="U35" s="92"/>
       <c r="V35" s="43" t="str">
         <f t="shared" si="0"/>
         <v>OSCI</v>
@@ -16199,13 +16199,13 @@
       <c r="N36" s="40"/>
       <c r="O36" s="41"/>
       <c r="P36" s="42"/>
-      <c r="Q36" s="90" t="s">
+      <c r="Q36" s="92" t="s">
         <v>188</v>
       </c>
-      <c r="R36" s="90"/>
-      <c r="S36" s="90"/>
-      <c r="T36" s="90"/>
-      <c r="U36" s="90"/>
+      <c r="R36" s="92"/>
+      <c r="S36" s="92"/>
+      <c r="T36" s="92"/>
+      <c r="U36" s="92"/>
       <c r="V36" s="43" t="str">
         <f t="shared" si="0"/>
         <v>OSCO</v>
@@ -16242,13 +16242,13 @@
       <c r="N37" s="40"/>
       <c r="O37" s="41"/>
       <c r="P37" s="42"/>
-      <c r="Q37" s="90" t="s">
+      <c r="Q37" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="R37" s="90"/>
-      <c r="S37" s="90"/>
-      <c r="T37" s="90"/>
-      <c r="U37" s="90"/>
+      <c r="R37" s="92"/>
+      <c r="S37" s="92"/>
+      <c r="T37" s="92"/>
+      <c r="U37" s="92"/>
       <c r="V37" s="43" t="str">
         <f t="shared" si="0"/>
         <v>SOSCI</v>
@@ -16287,13 +16287,13 @@
       <c r="N38" s="40"/>
       <c r="O38" s="41"/>
       <c r="P38" s="42"/>
-      <c r="Q38" s="90" t="s">
+      <c r="Q38" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="R38" s="90"/>
-      <c r="S38" s="90"/>
-      <c r="T38" s="90"/>
-      <c r="U38" s="90"/>
+      <c r="R38" s="92"/>
+      <c r="S38" s="92"/>
+      <c r="T38" s="92"/>
+      <c r="U38" s="92"/>
       <c r="V38" s="43" t="str">
         <f t="shared" si="0"/>
         <v>SOSCO</v>
@@ -16359,13 +16359,13 @@
       <c r="N40" s="40"/>
       <c r="O40" s="41"/>
       <c r="P40" s="42"/>
-      <c r="Q40" s="90" t="s">
+      <c r="Q40" s="92" t="s">
         <v>178</v>
       </c>
-      <c r="R40" s="90"/>
-      <c r="S40" s="90"/>
-      <c r="T40" s="90"/>
-      <c r="U40" s="90"/>
+      <c r="R40" s="92"/>
+      <c r="S40" s="92"/>
+      <c r="T40" s="92"/>
+      <c r="U40" s="92"/>
       <c r="V40" s="43" t="str">
         <f t="shared" si="0"/>
         <v>LED1</v>
@@ -16435,11 +16435,11 @@
       <c r="N42" s="40"/>
       <c r="O42" s="41"/>
       <c r="P42" s="42"/>
-      <c r="Q42" s="90"/>
-      <c r="R42" s="90"/>
-      <c r="S42" s="90"/>
-      <c r="T42" s="90"/>
-      <c r="U42" s="90"/>
+      <c r="Q42" s="92"/>
+      <c r="R42" s="92"/>
+      <c r="S42" s="92"/>
+      <c r="T42" s="92"/>
+      <c r="U42" s="92"/>
       <c r="V42" s="43">
         <f>Z22</f>
         <v>0</v>
@@ -16480,16 +16480,16 @@
       <c r="P43" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="Q43" s="90" t="s">
+      <c r="Q43" s="92" t="s">
         <v>190</v>
       </c>
-      <c r="R43" s="90"/>
-      <c r="S43" s="90"/>
-      <c r="T43" s="90"/>
-      <c r="U43" s="90"/>
+      <c r="R43" s="92"/>
+      <c r="S43" s="92"/>
+      <c r="T43" s="92"/>
+      <c r="U43" s="92"/>
       <c r="V43" s="43" t="str">
         <f>Z21</f>
-        <v>TX(→RX)</v>
+        <v>RX(→TX)</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.15">
@@ -16527,16 +16527,16 @@
       <c r="P44" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="Q44" s="90" t="s">
+      <c r="Q44" s="92" t="s">
         <v>190</v>
       </c>
-      <c r="R44" s="90"/>
-      <c r="S44" s="90"/>
-      <c r="T44" s="90"/>
-      <c r="U44" s="90"/>
+      <c r="R44" s="92"/>
+      <c r="S44" s="92"/>
+      <c r="T44" s="92"/>
+      <c r="U44" s="92"/>
       <c r="V44" s="43" t="str">
         <f>Z20</f>
-        <v>RX(→TX)</v>
+        <v>TX(→RX)</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.15">
@@ -16689,13 +16689,13 @@
       <c r="P48" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="Q48" s="90" t="s">
+      <c r="Q48" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="R48" s="90"/>
-      <c r="S48" s="90"/>
-      <c r="T48" s="90"/>
-      <c r="U48" s="90"/>
+      <c r="R48" s="92"/>
+      <c r="S48" s="92"/>
+      <c r="T48" s="92"/>
+      <c r="U48" s="92"/>
       <c r="V48" s="43" t="str">
         <f>Z16</f>
         <v>D-(→D+)</v>
@@ -16769,11 +16769,11 @@
       <c r="N50" s="40"/>
       <c r="O50" s="41"/>
       <c r="P50" s="42"/>
-      <c r="Q50" s="90"/>
-      <c r="R50" s="90"/>
-      <c r="S50" s="90"/>
-      <c r="T50" s="90"/>
-      <c r="U50" s="90"/>
+      <c r="Q50" s="92"/>
+      <c r="R50" s="92"/>
+      <c r="S50" s="92"/>
+      <c r="T50" s="92"/>
+      <c r="U50" s="92"/>
       <c r="V50" s="43">
         <f>Z14</f>
         <v>0</v>
@@ -16814,11 +16814,11 @@
       <c r="N51" s="40"/>
       <c r="O51" s="41"/>
       <c r="P51" s="42"/>
-      <c r="Q51" s="90"/>
-      <c r="R51" s="90"/>
-      <c r="S51" s="90"/>
-      <c r="T51" s="90"/>
-      <c r="U51" s="90"/>
+      <c r="Q51" s="92"/>
+      <c r="R51" s="92"/>
+      <c r="S51" s="92"/>
+      <c r="T51" s="92"/>
+      <c r="U51" s="92"/>
       <c r="V51" s="43">
         <f>Z13</f>
         <v>0</v>
@@ -16857,11 +16857,11 @@
       <c r="N52" s="40"/>
       <c r="O52" s="41"/>
       <c r="P52" s="42"/>
-      <c r="Q52" s="90"/>
-      <c r="R52" s="90"/>
-      <c r="S52" s="90"/>
-      <c r="T52" s="90"/>
-      <c r="U52" s="90"/>
+      <c r="Q52" s="92"/>
+      <c r="R52" s="92"/>
+      <c r="S52" s="92"/>
+      <c r="T52" s="92"/>
+      <c r="U52" s="92"/>
       <c r="V52" s="43">
         <f>Z12</f>
         <v>0</v>
@@ -16939,26 +16939,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="Q28:U28"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="Q32:U32"/>
-    <mergeCell ref="Q33:U33"/>
-    <mergeCell ref="Q34:U34"/>
-    <mergeCell ref="Q35:U35"/>
-    <mergeCell ref="Q36:U36"/>
-    <mergeCell ref="Q37:U37"/>
-    <mergeCell ref="Q38:U38"/>
-    <mergeCell ref="Q39:U39"/>
-    <mergeCell ref="Q40:U40"/>
-    <mergeCell ref="Q41:U41"/>
-    <mergeCell ref="Q42:U42"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="Q45:U45"/>
     <mergeCell ref="Q52:U52"/>
     <mergeCell ref="Q53:U53"/>
     <mergeCell ref="Q54:U54"/>
@@ -16967,6 +16947,26 @@
     <mergeCell ref="Q49:U49"/>
     <mergeCell ref="Q50:U50"/>
     <mergeCell ref="Q51:U51"/>
+    <mergeCell ref="Q41:U41"/>
+    <mergeCell ref="Q42:U42"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="Q45:U45"/>
+    <mergeCell ref="Q36:U36"/>
+    <mergeCell ref="Q37:U37"/>
+    <mergeCell ref="Q38:U38"/>
+    <mergeCell ref="Q39:U39"/>
+    <mergeCell ref="Q40:U40"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="Q32:U32"/>
+    <mergeCell ref="Q33:U33"/>
+    <mergeCell ref="Q34:U34"/>
+    <mergeCell ref="Q35:U35"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="Q28:U28"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="Q30:U30"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <hyperlinks>
@@ -16984,342 +16984,623 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A93:AMK144"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A2:AMK332"/>
   <sheetViews>
-    <sheetView topLeftCell="B26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD48" sqref="AD48"/>
+    <sheetView topLeftCell="A157" zoomScale="89" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P177" sqref="P177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1025" width="8.75" style="53" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="54"/>
+    <col min="1" max="1" width="8.75" style="55" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="55" customWidth="1"/>
+    <col min="3" max="1025" width="8.75" style="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="93" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E93" s="56" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="94" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E94" s="53" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="95" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E95" s="53">
-        <v>44.3</v>
-      </c>
-      <c r="F95" s="53" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="96" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E96" s="53">
-        <f>E95*1000</f>
-        <v>44300</v>
-      </c>
-      <c r="F96" s="53" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="97" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E97" s="53">
-        <f>E96*2*2</f>
-        <v>177200</v>
-      </c>
-      <c r="F97" s="53" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="98" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E98" s="53">
-        <f>E97/1000</f>
-        <v>177.2</v>
-      </c>
-      <c r="F98" s="53" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="100" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E100" s="53" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="101" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E101" s="53">
-        <v>12</v>
-      </c>
-      <c r="F101" s="53" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="102" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E102" s="53">
-        <f>E101*1000000</f>
-        <v>12000000</v>
-      </c>
-      <c r="F102" s="53" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="103" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E103" s="53">
-        <f>E102/1000/8</f>
-        <v>1500</v>
-      </c>
-      <c r="F103" s="53" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="108" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E108" s="56" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="109" spans="5:14" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="F109" s="81" t="s">
-        <v>520</v>
-      </c>
-      <c r="G109" s="82" t="s">
-        <v>521</v>
-      </c>
-      <c r="H109" s="83" t="s">
-        <v>522</v>
-      </c>
-      <c r="I109" s="84"/>
-      <c r="J109" s="83" t="s">
-        <v>523</v>
-      </c>
-      <c r="K109" s="84"/>
-      <c r="L109" s="83" t="s">
-        <v>524</v>
-      </c>
-      <c r="M109" s="84"/>
-      <c r="N109" s="53" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="110" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E110" s="85" t="s">
-        <v>510</v>
-      </c>
-      <c r="F110" s="53" t="s">
-        <v>511</v>
-      </c>
-      <c r="G110" s="53" t="s">
-        <v>512</v>
-      </c>
-      <c r="H110" s="59" t="s">
-        <v>513</v>
-      </c>
-      <c r="I110" s="53" t="s">
-        <v>514</v>
-      </c>
-      <c r="J110" s="53" t="s">
-        <v>514</v>
-      </c>
-      <c r="K110" s="53" t="s">
-        <v>514</v>
-      </c>
-      <c r="L110" s="53" t="s">
-        <v>514</v>
-      </c>
-      <c r="M110" s="53" t="s">
-        <v>515</v>
-      </c>
-      <c r="N110" s="53" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="112" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E112" s="56" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="113" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E113" s="85" t="s">
-        <v>510</v>
-      </c>
-      <c r="F113" s="53" t="s">
-        <v>511</v>
-      </c>
-      <c r="G113" s="53" t="s">
-        <v>517</v>
-      </c>
-      <c r="H113" s="59" t="s">
-        <v>513</v>
-      </c>
-      <c r="I113" s="53" t="s">
-        <v>514</v>
-      </c>
-      <c r="J113" s="53" t="s">
-        <v>514</v>
-      </c>
-      <c r="K113" s="53" t="s">
-        <v>514</v>
-      </c>
-      <c r="L113" s="53" t="s">
-        <v>514</v>
-      </c>
-      <c r="M113" s="53" t="s">
-        <v>515</v>
-      </c>
-      <c r="N113" s="53" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="116" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E116" s="53" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="117" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="F117" s="53" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="118" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="G118" s="56" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="119" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="G119" s="53" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="120" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="F120" s="53" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="121" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="G121" s="56" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="122" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="G122" s="53" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="123" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="G123" s="53" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="124" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="G124" s="53" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="125" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="F125" s="53" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="126" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="G126" s="56" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="127" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="G127" s="53" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="128" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="G128" s="53" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="129" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="G129" s="53" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="130" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="G130" s="53" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="131" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E131" s="53" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="132" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F132" s="53" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="133" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F133" s="53" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="134" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F134" s="53" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="135" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F135" s="53" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="136" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F136" s="53" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="137" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F137" s="56" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="138" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F138" s="53" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="139" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F139" s="53" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="140" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F140" s="53" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="141" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F141" s="56" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="142" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F142" s="53" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="143" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F143" s="53" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="144" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F144" s="53" t="s">
-        <v>554</v>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B2" s="55" t="s">
+        <v>355</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C3" s="55" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C4" s="55" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B5" s="55" t="s">
+        <v>359</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C6" s="55" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B8" s="55" t="s">
+        <v>362</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C9" s="55" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B10" s="55" t="s">
+        <v>365</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C11" s="55" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C12" s="55" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B14" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C15" s="55" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B16" s="55" t="s">
+        <v>372</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C17" s="55" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C18" s="55" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C19" s="55" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B21" s="55" t="s">
+        <v>377</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C22" s="55" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B23" s="55" t="s">
+        <v>380</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C24" s="55" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B25" s="55" t="s">
+        <v>383</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C26" s="55" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B28" s="56" t="s">
+        <v>386</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C29" s="55" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C30" s="55" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C31" s="55" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B72" s="56" t="s">
+        <v>391</v>
+      </c>
+      <c r="C72" s="55" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C73" s="57" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C74" s="57"/>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B75" s="55" t="s">
+        <v>394</v>
+      </c>
+      <c r="C75" s="55" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C76" s="55" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C77" s="55" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C78" s="55" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C79" s="55" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C80" s="58" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C81" s="55" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C82" s="55" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B115" s="55" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C116" s="55" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C117" s="55" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C118" s="55" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B120" s="59" t="s">
+        <v>407</v>
+      </c>
+      <c r="C120" s="55" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C121" s="55" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C122" s="58" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C123" s="59" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C124" s="57"/>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C125" s="57"/>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C126" s="57"/>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C127" s="57"/>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C128" s="57"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C129" s="57"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C130" s="57"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C131" s="57"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C132" s="57"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C133" s="57"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C134" s="57"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C135" s="57"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C136" s="57"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C137" s="57"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C138" s="57"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C139" s="57"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C140" s="57"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C141" s="57"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C142" s="57"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C143" s="57"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C144" s="57"/>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C145" s="57"/>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C146" s="57"/>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C147" s="57"/>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C148" s="57"/>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C149" s="57"/>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C150" s="57"/>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C151" s="57"/>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C152" s="57"/>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C153" s="57"/>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C154" s="57"/>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B155" s="55" t="s">
+        <v>412</v>
+      </c>
+      <c r="C155" s="55" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C156" s="55" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C157" s="55" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C158" s="55" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C159" s="55" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C160" s="55" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B161" s="55" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C162" s="55" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C163" s="57" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C164" s="55" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B172" s="55" t="s">
+        <v>423</v>
+      </c>
+      <c r="C172" s="55" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C173" s="55" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C174" s="55" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B175" s="55" t="s">
+        <v>427</v>
+      </c>
+      <c r="C175" s="55" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C176" s="55" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B178" s="55" t="s">
+        <v>430</v>
+      </c>
+      <c r="E178" s="55" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C179" s="55" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A240" s="59" t="s">
+        <v>433</v>
+      </c>
+      <c r="B240" s="55" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B241" s="55" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B242" s="55" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B243" s="55" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B244" s="55" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B245" s="55" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B246" s="55" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B247" s="55" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B248" s="55" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B249" s="55" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B250" s="55" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B251" s="55" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B252" s="55" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B253" s="55" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B254" s="55" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B255" s="55" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B256" s="55" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B257" s="55" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B258" s="55" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B259" s="55" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B260" s="55" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B262" s="55" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C263" s="55" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C264" s="55" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C265" s="55" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C267" s="55" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C268" s="55" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="332" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B332" s="56" t="s">
+        <v>461</v>
+      </c>
+      <c r="N332" s="56" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18154,7 +18435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H122" sqref="H122"/>
     </sheetView>
   </sheetViews>
@@ -18200,7 +18481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E246DFAF-2051-4C1B-8C0A-6AD44C0B587A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="D47" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="R58" sqref="R58"/>
     </sheetView>
   </sheetViews>
@@ -18216,10 +18497,350 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A93:AMK144"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD48" sqref="AD48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1025" width="8.75" style="53" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="54"/>
+  </cols>
+  <sheetData>
+    <row r="93" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E93" s="56" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="94" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E94" s="53" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="95" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E95" s="53">
+        <v>44.3</v>
+      </c>
+      <c r="F95" s="53" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="96" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E96" s="53">
+        <f>E95*1000</f>
+        <v>44300</v>
+      </c>
+      <c r="F96" s="53" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="97" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="E97" s="53">
+        <f>E96*2*2</f>
+        <v>177200</v>
+      </c>
+      <c r="F97" s="53" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="98" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="E98" s="53">
+        <f>E97/1000</f>
+        <v>177.2</v>
+      </c>
+      <c r="F98" s="53" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="100" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="E100" s="53" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="101" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="E101" s="53">
+        <v>12</v>
+      </c>
+      <c r="F101" s="53" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="102" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="E102" s="53">
+        <f>E101*1000000</f>
+        <v>12000000</v>
+      </c>
+      <c r="F102" s="53" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="103" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="E103" s="53">
+        <f>E102/1000/8</f>
+        <v>1500</v>
+      </c>
+      <c r="F103" s="53" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="108" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="E108" s="56" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="109" spans="5:14" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="F109" s="81" t="s">
+        <v>520</v>
+      </c>
+      <c r="G109" s="82" t="s">
+        <v>521</v>
+      </c>
+      <c r="H109" s="83" t="s">
+        <v>522</v>
+      </c>
+      <c r="I109" s="84"/>
+      <c r="J109" s="83" t="s">
+        <v>523</v>
+      </c>
+      <c r="K109" s="84"/>
+      <c r="L109" s="83" t="s">
+        <v>524</v>
+      </c>
+      <c r="M109" s="84"/>
+      <c r="N109" s="53" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="110" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="E110" s="85" t="s">
+        <v>510</v>
+      </c>
+      <c r="F110" s="53" t="s">
+        <v>511</v>
+      </c>
+      <c r="G110" s="53" t="s">
+        <v>512</v>
+      </c>
+      <c r="H110" s="59" t="s">
+        <v>513</v>
+      </c>
+      <c r="I110" s="53" t="s">
+        <v>514</v>
+      </c>
+      <c r="J110" s="53" t="s">
+        <v>514</v>
+      </c>
+      <c r="K110" s="53" t="s">
+        <v>514</v>
+      </c>
+      <c r="L110" s="53" t="s">
+        <v>514</v>
+      </c>
+      <c r="M110" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="N110" s="53" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="112" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="E112" s="56" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="113" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="E113" s="85" t="s">
+        <v>510</v>
+      </c>
+      <c r="F113" s="53" t="s">
+        <v>511</v>
+      </c>
+      <c r="G113" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="H113" s="59" t="s">
+        <v>513</v>
+      </c>
+      <c r="I113" s="53" t="s">
+        <v>514</v>
+      </c>
+      <c r="J113" s="53" t="s">
+        <v>514</v>
+      </c>
+      <c r="K113" s="53" t="s">
+        <v>514</v>
+      </c>
+      <c r="L113" s="53" t="s">
+        <v>514</v>
+      </c>
+      <c r="M113" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="N113" s="53" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="116" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="E116" s="53" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="117" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="F117" s="53" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="118" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="G118" s="56" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="119" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="G119" s="53" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="120" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="F120" s="53" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="121" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="G121" s="56" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="122" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="G122" s="53" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="123" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="G123" s="53" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="124" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="G124" s="53" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="125" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="F125" s="53" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="126" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="G126" s="56" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="127" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="G127" s="53" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="128" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="G128" s="53" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="129" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G129" s="53" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="130" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G130" s="53" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="131" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E131" s="53" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="132" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F132" s="53" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="133" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F133" s="53" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="134" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F134" s="53" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="135" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F135" s="53" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="136" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F136" s="53" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="137" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F137" s="56" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="138" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F138" s="53" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="139" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F139" s="53" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="140" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F140" s="53" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="141" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F141" s="56" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="142" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F142" s="53" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="143" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F143" s="53" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="144" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F144" s="53" t="s">
+        <v>554</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:O67"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
@@ -19038,7 +19659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B64"/>
   <sheetViews>
@@ -19282,7 +19903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A97:AMK200"/>
   <sheetViews>
@@ -20218,625 +20839,4 @@
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A2:AMK332"/>
-  <sheetViews>
-    <sheetView topLeftCell="A157" zoomScale="89" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P177" sqref="P177"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="8.75" style="55" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="55" customWidth="1"/>
-    <col min="3" max="1025" width="8.75" style="55" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B2" s="55" t="s">
-        <v>355</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C3" s="55" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C4" s="55" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B5" s="55" t="s">
-        <v>359</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C6" s="55" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B8" s="55" t="s">
-        <v>362</v>
-      </c>
-      <c r="C8" s="55" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C9" s="55" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B10" s="55" t="s">
-        <v>365</v>
-      </c>
-      <c r="C10" s="55" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C11" s="55" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C12" s="55" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B14" s="55" t="s">
-        <v>369</v>
-      </c>
-      <c r="C14" s="55" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C15" s="55" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B16" s="55" t="s">
-        <v>372</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C17" s="55" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C18" s="55" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C19" s="55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B21" s="55" t="s">
-        <v>377</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C22" s="55" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B23" s="55" t="s">
-        <v>380</v>
-      </c>
-      <c r="C23" s="55" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C24" s="55" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B25" s="55" t="s">
-        <v>383</v>
-      </c>
-      <c r="C25" s="55" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C26" s="55" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B28" s="56" t="s">
-        <v>386</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C29" s="55" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C30" s="55" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C31" s="55" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B72" s="56" t="s">
-        <v>391</v>
-      </c>
-      <c r="C72" s="55" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C73" s="57" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C74" s="57"/>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B75" s="55" t="s">
-        <v>394</v>
-      </c>
-      <c r="C75" s="55" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C76" s="55" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C77" s="55" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C78" s="55" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C79" s="55" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C80" s="58" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C81" s="55" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C82" s="55" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B115" s="55" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C116" s="55" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C117" s="55" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C118" s="55" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B120" s="59" t="s">
-        <v>407</v>
-      </c>
-      <c r="C120" s="55" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C121" s="55" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C122" s="58" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C123" s="59" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C124" s="57"/>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C125" s="57"/>
-    </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C126" s="57"/>
-    </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C127" s="57"/>
-    </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C128" s="57"/>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C129" s="57"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C130" s="57"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C131" s="57"/>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C132" s="57"/>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C133" s="57"/>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C134" s="57"/>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C135" s="57"/>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C136" s="57"/>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C137" s="57"/>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C138" s="57"/>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C139" s="57"/>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C140" s="57"/>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C141" s="57"/>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C142" s="57"/>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C143" s="57"/>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C144" s="57"/>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C145" s="57"/>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C146" s="57"/>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C147" s="57"/>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C148" s="57"/>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C149" s="57"/>
-    </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C150" s="57"/>
-    </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C151" s="57"/>
-    </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C152" s="57"/>
-    </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C153" s="57"/>
-    </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C154" s="57"/>
-    </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B155" s="55" t="s">
-        <v>412</v>
-      </c>
-      <c r="C155" s="55" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C156" s="55" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C157" s="55" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C158" s="55" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C159" s="55" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C160" s="55" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B161" s="55" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C162" s="55" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C163" s="57" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C164" s="55" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B172" s="55" t="s">
-        <v>423</v>
-      </c>
-      <c r="C172" s="55" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C173" s="55" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C174" s="55" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B175" s="55" t="s">
-        <v>427</v>
-      </c>
-      <c r="C175" s="55" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C176" s="55" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B178" s="55" t="s">
-        <v>430</v>
-      </c>
-      <c r="E178" s="55" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C179" s="55" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A240" s="59" t="s">
-        <v>433</v>
-      </c>
-      <c r="B240" s="55" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B241" s="55" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B242" s="55" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B243" s="55" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B244" s="55" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B245" s="55" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B246" s="55" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B247" s="55" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B248" s="55" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B249" s="55" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B250" s="55" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B251" s="55" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B252" s="55" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B253" s="55" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B254" s="55" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B255" s="55" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B256" s="55" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B257" s="55" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B258" s="55" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B259" s="55" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B260" s="55" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B262" s="55" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C263" s="55" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C264" s="55" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C265" s="55" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="267" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C267" s="55" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="268" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C268" s="55" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="332" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B332" s="56" t="s">
-        <v>461</v>
-      </c>
-      <c r="N332" s="56" t="s">
-        <v>185</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>